--- a/4.2.Forecasting-Cash-Flow-and-Profits-Template-Spreadsheet.xlsx
+++ b/4.2.Forecasting-Cash-Flow-and-Profits-Template-Spreadsheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28700" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="28700" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Forecasting Cash Flow + Profits" sheetId="2" r:id="rId1"/>
@@ -1934,11 +1934,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AM9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AO247" sqref="AO4:AO247"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35392,8 +35392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="AE4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AN4" sqref="AN4:AO247"/>
